--- a/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
+++ b/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
@@ -8,31 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\dissertation-TCP-string-distances\ExportedTestSuites\Reconstructed Suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC94E3F5-553E-484F-862C-25D1E616136B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD39BD4-BB9F-4AB0-8290-B6C594A33945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7860" yWindow="4035" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Suite</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -61,6 +68,33 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>ReadTime</t>
+  </si>
+  <si>
+    <t>ParseTime</t>
+  </si>
+  <si>
+    <t>SM Time</t>
+  </si>
+  <si>
+    <t>PriorityTime</t>
+  </si>
+  <si>
+    <t>ReconstructTime</t>
+  </si>
+  <si>
+    <t>Cli (att1)</t>
+  </si>
+  <si>
+    <t>Cli (att2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL TIME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -104,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,93 +433,188 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="8" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <f>SUM(E2:I2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>600</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">SUM(E3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>600</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>280</v>
+      </c>
+      <c r="F4" s="2">
+        <v>475</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26105</v>
+      </c>
+      <c r="H4" s="2">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>26947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>600</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>374</v>
+      </c>
+      <c r="F5" s="2">
+        <v>562</v>
+      </c>
+      <c r="G5" s="2">
+        <v>25593</v>
+      </c>
+      <c r="H5" s="2">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2">
+        <v>81</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>26681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>600</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>320</v>
+      </c>
+      <c r="F6" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>600</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>600</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>AVERAGE(E2:E7)</f>
+        <v>324.66666666666669</v>
+      </c>
+      <c r="F8">
+        <f>AVERAGE(F2:F7)</f>
+        <v>514.33333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
+++ b/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\dissertation-TCP-string-distances\ExportedTestSuites\Reconstructed Suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD39BD4-BB9F-4AB0-8290-B6C594A33945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10874CB1-F415-4F71-8CF2-E9C40B83D53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7860" yWindow="4035" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32730" yWindow="60" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,22 +487,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>600</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="E3" s="1">
+        <v>321</v>
+      </c>
+      <c r="F3" s="1">
+        <v>593</v>
+      </c>
+      <c r="G3" s="1">
+        <v>661743</v>
+      </c>
+      <c r="H3" s="1">
+        <v>102349</v>
+      </c>
+      <c r="I3" s="1">
+        <v>92</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" ref="J3:J5" si="0">SUM(E3:I3)</f>
-        <v>0</v>
+        <v>765098</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -564,7 +579,7 @@
         <v>81</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f>SUM(E5:I5)</f>
         <v>26681</v>
       </c>
     </row>
@@ -587,6 +602,19 @@
       <c r="F6" s="2">
         <v>506</v>
       </c>
+      <c r="G6" s="2">
+        <v>682415</v>
+      </c>
+      <c r="H6" s="2">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <f>SUM(E6:I6)</f>
+        <v>683397</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -605,11 +633,15 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>AVERAGE(E2:E7)</f>
-        <v>324.66666666666669</v>
+        <v>323.75</v>
       </c>
       <c r="F8">
         <f>AVERAGE(F2:F7)</f>
-        <v>514.33333333333337</v>
+        <v>534</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="G8:I8" si="1">AVERAGE(I2:I7)</f>
+        <v>85.666666666666671</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">

--- a/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
+++ b/ExportedTestSuites/Reconstructed Suites/Generationtimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobby\dissertation-TCP-string-distances\ExportedTestSuites\Reconstructed Suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10874CB1-F415-4F71-8CF2-E9C40B83D53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD39BD4-BB9F-4AB0-8290-B6C594A33945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="60" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7860" yWindow="4035" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,37 +487,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>600</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>321</v>
-      </c>
-      <c r="F3" s="1">
-        <v>593</v>
-      </c>
-      <c r="G3" s="1">
-        <v>661743</v>
-      </c>
-      <c r="H3" s="1">
-        <v>102349</v>
-      </c>
-      <c r="I3" s="1">
-        <v>92</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <f t="shared" ref="J3:J5" si="0">SUM(E3:I3)</f>
-        <v>765098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -579,7 +564,7 @@
         <v>81</v>
       </c>
       <c r="J5">
-        <f>SUM(E5:I5)</f>
+        <f t="shared" si="0"/>
         <v>26681</v>
       </c>
     </row>
@@ -602,19 +587,6 @@
       <c r="F6" s="2">
         <v>506</v>
       </c>
-      <c r="G6" s="2">
-        <v>682415</v>
-      </c>
-      <c r="H6" s="2">
-        <v>72</v>
-      </c>
-      <c r="I6" s="2">
-        <v>84</v>
-      </c>
-      <c r="J6">
-        <f>SUM(E6:I6)</f>
-        <v>683397</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -633,15 +605,11 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>AVERAGE(E2:E7)</f>
-        <v>323.75</v>
+        <v>324.66666666666669</v>
       </c>
       <c r="F8">
         <f>AVERAGE(F2:F7)</f>
-        <v>534</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="G8:I8" si="1">AVERAGE(I2:I7)</f>
-        <v>85.666666666666671</v>
+        <v>514.33333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
